--- a/cross_colums/作业2.xlsx
+++ b/cross_colums/作业2.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="10260" windowHeight="9735" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20520" windowHeight="9735" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -29,7 +30,6 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -637,8 +637,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,360 +1076,360 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="9" customWidth="1" style="3" min="1" max="16384"/>
+    <col width="9" customWidth="1" style="4" min="1" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" customFormat="1" s="3">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="4" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="4" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>54</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="4" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="4" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="4" t="n">
         <v>42</v>
       </c>
     </row>
@@ -1450,360 +1453,360 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="9" customWidth="1" style="3" min="1" max="16384"/>
+    <col width="9" customWidth="1" style="4" min="1" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" customFormat="1" s="3">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="4" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>83</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="4" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="4" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="4" t="n">
         <v>40</v>
       </c>
     </row>
@@ -1821,694 +1824,1231 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="5" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="2" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="2" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="2" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N5" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="P5" s="2" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="O6" s="1" t="n">
+      <c r="O6" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="2" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="2" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="L10" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="2" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="2" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="L12" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="N12" s="1" t="n">
+      <c r="N12" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="O12" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="J13" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="M13" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="N13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="P13" s="2" t="n">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>86</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>94</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>96</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>97</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>91</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>65</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>92</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>